--- a/cbrunner/Parameters/Parameters_BiomassTurnover.xlsx
+++ b/cbrunner/Parameters/Parameters_BiomassTurnover.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C40AD12-B1D2-45DD-B9B7-05932F345F4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB51E3CD-C52C-413C-ACF6-6EB3792E1CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{BEAECE5A-0A3D-49AE-93C5-57B70980BA7B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>StemMerch</t>
   </si>
@@ -76,14 +76,27 @@
   </si>
   <si>
     <t>Kurz et al. 2009</t>
+  </si>
+  <si>
+    <t>BiomassTurnoverAgeRef</t>
+  </si>
+  <si>
+    <t>Used to explore age dependence in biomass turnover</t>
+  </si>
+  <si>
+    <t>BiomassTurnoverAgeDependence</t>
+  </si>
+  <si>
+    <t>Used to explore age dependence in biomass turnover (setting -0.001 adds decline with age)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -122,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -149,6 +162,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -468,12 +487,12 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.109375" customWidth="1"/>
@@ -666,23 +685,47 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10">
+        <v>100</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-9999</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>-9999</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>

--- a/cbrunner/Parameters/Parameters_BiomassTurnover.xlsx
+++ b/cbrunner/Parameters/Parameters_BiomassTurnover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB51E3CD-C52C-413C-ACF6-6EB3792E1CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79BCBFA-6CD1-4B14-BDF0-4B407C8469EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{BEAECE5A-0A3D-49AE-93C5-57B70980BA7B}"/>
   </bookViews>
@@ -87,7 +87,7 @@
     <t>BiomassTurnoverAgeDependence</t>
   </si>
   <si>
-    <t>Used to explore age dependence in biomass turnover (setting -0.001 adds decline with age)</t>
+    <t>Used to explore age dependence in biomass turnover (setting 0.001 adds decline with age)</t>
   </si>
 </sst>
 </file>

--- a/cbrunner/Parameters/Parameters_BiomassTurnover.xlsx
+++ b/cbrunner/Parameters/Parameters_BiomassTurnover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79BCBFA-6CD1-4B14-BDF0-4B407C8469EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4A9597-F113-4880-86F2-2765E6228433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{BEAECE5A-0A3D-49AE-93C5-57B70980BA7B}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{BEAECE5A-0A3D-49AE-93C5-57B70980BA7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,8 +494,8 @@
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="8" max="8" width="10.88671875" customWidth="1"/>
   </cols>

--- a/cbrunner/Parameters/Parameters_BiomassTurnover.xlsx
+++ b/cbrunner/Parameters/Parameters_BiomassTurnover.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4A9597-F113-4880-86F2-2765E6228433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E8A148-B71C-494C-8DB4-ABFCF37F30EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{BEAECE5A-0A3D-49AE-93C5-57B70980BA7B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>StemMerch</t>
   </si>
@@ -88,6 +88,30 @@
   </si>
   <si>
     <t>Used to explore age dependence in biomass turnover (setting 0.001 adds decline with age)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Not used</t>
+  </si>
+  <si>
+    <t>Replaced with age-depednent function</t>
+  </si>
+  <si>
+    <t>Mreg0</t>
+  </si>
+  <si>
+    <t>Mreg1</t>
+  </si>
+  <si>
+    <t>MregShape</t>
+  </si>
+  <si>
+    <t>MregInflect</t>
+  </si>
+  <si>
+    <t>Grace period based on analysis of PSPs, max consistent with Kurz et al. 2009</t>
   </si>
 </sst>
 </file>
@@ -188,9 +212,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -228,7 +252,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -334,7 +358,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -476,7 +500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -487,7 +511,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,16 +543,18 @@
       <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8">
-        <v>4.4999999999999997E-3</v>
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1E-3</v>
       </c>
       <c r="C2" s="9">
         <v>0.1</v>
@@ -539,19 +565,16 @@
       <c r="E2" s="9">
         <v>-9999</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>3.5000000000000003E-2</v>
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C3" s="9">
         <v>0.1</v>
@@ -562,19 +585,16 @@
       <c r="E3" s="9">
         <v>-9999</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0.1</v>
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
       </c>
       <c r="C4" s="9">
         <v>0.1</v>
@@ -585,19 +605,16 @@
       <c r="E4" s="9">
         <v>-9999</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0.04</v>
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
       </c>
       <c r="C5" s="9">
         <v>0.1</v>
@@ -608,19 +625,16 @@
       <c r="E5" s="9">
         <v>-9999</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="8">
-        <v>0.04</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="C6" s="9">
         <v>0.1</v>
@@ -634,16 +648,18 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" s="8">
-        <v>0.02</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C7" s="9">
         <v>0.1</v>
@@ -657,16 +673,18 @@
       <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" s="8">
-        <v>0.64100000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C8" s="9">
         <v>0.1</v>
@@ -685,11 +703,11 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10">
-        <v>100</v>
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.04</v>
       </c>
       <c r="C9" s="9">
         <v>0.1</v>
@@ -701,18 +719,18 @@
         <v>-9999</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0</v>
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.04</v>
       </c>
       <c r="C10" s="9">
         <v>0.1</v>
@@ -724,52 +742,100 @@
         <v>-9999</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>-9999</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>-9999</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="10">
+        <v>100</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>-9999</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>-9999</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>

--- a/cbrunner/Parameters/Parameters_BiomassTurnover.xlsx
+++ b/cbrunner/Parameters/Parameters_BiomassTurnover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E8A148-B71C-494C-8DB4-ABFCF37F30EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1DA1CD-3FFF-42C5-8C44-2E4A825B6B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{BEAECE5A-0A3D-49AE-93C5-57B70980BA7B}"/>
+    <workbookView xWindow="7200" yWindow="2832" windowWidth="15252" windowHeight="10020" xr2:uid="{BEAECE5A-0A3D-49AE-93C5-57B70980BA7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
-  <si>
-    <t>StemMerch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>StemNonMerch</t>
   </si>
@@ -96,22 +93,19 @@
     <t>Not used</t>
   </si>
   <si>
-    <t>Replaced with age-depednent function</t>
-  </si>
-  <si>
-    <t>Mreg0</t>
-  </si>
-  <si>
     <t>Mreg1</t>
   </si>
   <si>
-    <t>MregShape</t>
-  </si>
-  <si>
-    <t>MregInflect</t>
-  </si>
-  <si>
-    <t>Grace period based on analysis of PSPs, max consistent with Kurz et al. 2009</t>
+    <t>Chen et al. 2002</t>
+  </si>
+  <si>
+    <t>Mreg2</t>
+  </si>
+  <si>
+    <t>Mreg3</t>
+  </si>
+  <si>
+    <t>Mreg4</t>
   </si>
 </sst>
 </file>
@@ -508,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7617E0-7A5B-47D8-8FC9-4F99505BA18D}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,35 +520,35 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="9">
         <v>0.1</v>
@@ -566,15 +560,15 @@
         <v>-9999</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>5.0000000000000001E-3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="9">
         <v>0.1</v>
@@ -586,15 +580,15 @@
         <v>-9999</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="C4" s="9">
         <v>0.1</v>
@@ -606,15 +600,15 @@
         <v>-9999</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>2.5</v>
       </c>
       <c r="C5" s="9">
         <v>0.1</v>
@@ -626,7 +620,7 @@
         <v>-9999</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -634,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="8">
-        <v>4.4999999999999997E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C6" s="9">
         <v>0.1</v>
@@ -646,10 +640,10 @@
         <v>-9999</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -659,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C7" s="9">
         <v>0.1</v>
@@ -671,11 +665,9 @@
         <v>-9999</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
@@ -684,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="C8" s="9">
         <v>0.1</v>
@@ -696,7 +688,7 @@
         <v>-9999</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -719,7 +711,7 @@
         <v>-9999</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -730,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="8">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="C10" s="9">
         <v>0.1</v>
@@ -742,7 +734,7 @@
         <v>-9999</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -753,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="8">
-        <v>0.02</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="C11" s="9">
         <v>0.1</v>
@@ -765,18 +757,17 @@
         <v>-9999</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0.64100000000000001</v>
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10">
+        <v>100</v>
       </c>
       <c r="C12" s="9">
         <v>0.1</v>
@@ -788,18 +779,17 @@
         <v>-9999</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="10">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
       </c>
       <c r="C13" s="9">
         <v>0.1</v>
@@ -811,45 +801,20 @@
         <v>-9999</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>-9999</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -1390,72 +1355,6 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/cbrunner/Parameters/Parameters_BiomassTurnover.xlsx
+++ b/cbrunner/Parameters/Parameters_BiomassTurnover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1DA1CD-3FFF-42C5-8C44-2E4A825B6B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BD255A-B5FA-4A5F-9DFE-DA9745B50EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2832" windowWidth="15252" windowHeight="10020" xr2:uid="{BEAECE5A-0A3D-49AE-93C5-57B70980BA7B}"/>
+    <workbookView xWindow="11265" yWindow="0" windowWidth="10335" windowHeight="13500" xr2:uid="{BEAECE5A-0A3D-49AE-93C5-57B70980BA7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,25 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
-  <si>
-    <t>StemNonMerch</t>
-  </si>
-  <si>
-    <t>Foliage</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Bark</t>
-  </si>
-  <si>
-    <t>RootCoarse</t>
-  </si>
-  <si>
-    <t>RootFine</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>BL</t>
   </si>
@@ -90,9 +72,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Not used</t>
-  </si>
-  <si>
     <t>Mreg1</t>
   </si>
   <si>
@@ -106,6 +85,120 @@
   </si>
   <si>
     <t>Mreg4</t>
+  </si>
+  <si>
+    <t>RootFineMorToSoilVF</t>
+  </si>
+  <si>
+    <t>RootCoarseMorToSoilF</t>
+  </si>
+  <si>
+    <t>RootCoarseMorToSoilVF</t>
+  </si>
+  <si>
+    <t>BarkMorToLitterS</t>
+  </si>
+  <si>
+    <t>BarkMorToLitterM</t>
+  </si>
+  <si>
+    <t>BranchMorToDeadBranch</t>
+  </si>
+  <si>
+    <t>BranchMorToLitterF</t>
+  </si>
+  <si>
+    <t>FoliageMorToLitterVF</t>
+  </si>
+  <si>
+    <t>StemMerchMorToDeadStemMerch</t>
+  </si>
+  <si>
+    <t>StemNonMerchMorToDeadStemNonMerch</t>
+  </si>
+  <si>
+    <t>StemNonMerchLitToDeadBranch</t>
+  </si>
+  <si>
+    <t>StemNonMerchLitToLitterF</t>
+  </si>
+  <si>
+    <t>RootFineLitToSoilVF</t>
+  </si>
+  <si>
+    <t>RootFineLitToLitterVF</t>
+  </si>
+  <si>
+    <t>RootCoarseLitToSoilF</t>
+  </si>
+  <si>
+    <t>RootCoarseLitToLitterF</t>
+  </si>
+  <si>
+    <t>BarkLitToLitterS</t>
+  </si>
+  <si>
+    <t>BarkLitToLitterM</t>
+  </si>
+  <si>
+    <t>BarkLitToLitterF</t>
+  </si>
+  <si>
+    <t>BranchLitToDeadBranch</t>
+  </si>
+  <si>
+    <t>BranchLitToLitterF</t>
+  </si>
+  <si>
+    <t>FoliageLitToLitterVF</t>
+  </si>
+  <si>
+    <t>BarkMorToDeadBark</t>
+  </si>
+  <si>
+    <t>Foliage_RateLF</t>
+  </si>
+  <si>
+    <t>Branch_RateLF</t>
+  </si>
+  <si>
+    <t>Bark_RateLF</t>
+  </si>
+  <si>
+    <t>RootCoarse_RateLF</t>
+  </si>
+  <si>
+    <t>RootFine_RateLF</t>
+  </si>
+  <si>
+    <t>StemMerch_RateLF</t>
+  </si>
+  <si>
+    <t>StemNonMerch_RateLF</t>
+  </si>
+  <si>
+    <t>Modified from 0.75 to 1.00</t>
+  </si>
+  <si>
+    <t>Discontinued (was 0.25 in Kurz et al. 2009), now sent to litter pool</t>
+  </si>
+  <si>
+    <t>Discontinued (was 0.75 in Kurz et al. 2009)</t>
+  </si>
+  <si>
+    <t>Discontinued (was 0.25 in Kurz et al. 2009)</t>
+  </si>
+  <si>
+    <t>Discontinued (was 0.1 in Kurz et al 2009), now goes to a dead bark pool</t>
+  </si>
+  <si>
+    <t>Discontinued (was 0.15 in Kurz et al 2009), now goes to a dead bark pool</t>
+  </si>
+  <si>
+    <t>Mreg_Kurzetal2009</t>
+  </si>
+  <si>
+    <t>Kurz et al. 2009 (0.45 to 0.67 %C/yr)</t>
   </si>
 </sst>
 </file>
@@ -116,7 +209,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +221,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -187,6 +287,18 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,47 +617,47 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -557,15 +669,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="9">
-        <v>-9999</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -577,15 +689,15 @@
         <v>0</v>
       </c>
       <c r="E3" s="9">
-        <v>-9999</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -597,15 +709,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="9">
-        <v>-9999</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>2.5</v>
@@ -617,18 +729,18 @@
         <v>0</v>
       </c>
       <c r="E5" s="9">
-        <v>-9999</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C6" s="9">
         <v>0.1</v>
@@ -637,23 +749,18 @@
         <v>0</v>
       </c>
       <c r="E6" s="9">
-        <v>-9999</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
       <c r="C7" s="9">
         <v>0.1</v>
@@ -662,21 +769,15 @@
         <v>0</v>
       </c>
       <c r="E7" s="9">
-        <v>-9999</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0.04</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8" s="9">
         <v>0.1</v>
@@ -685,21 +786,17 @@
         <v>0</v>
       </c>
       <c r="E8" s="9">
-        <v>-9999</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>1</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B9" s="8">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="C9" s="9">
         <v>0.1</v>
@@ -708,21 +805,21 @@
         <v>0</v>
       </c>
       <c r="E9" s="9">
-        <v>-9999</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B10" s="8">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C10" s="9">
         <v>0.1</v>
@@ -731,21 +828,21 @@
         <v>0</v>
       </c>
       <c r="E10" s="9">
-        <v>-9999</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B11" s="8">
-        <v>0.64100000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="C11" s="9">
         <v>0.1</v>
@@ -754,20 +851,21 @@
         <v>0</v>
       </c>
       <c r="E11" s="9">
-        <v>-9999</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="10">
-        <v>100</v>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.02</v>
       </c>
       <c r="C12" s="9">
         <v>0.1</v>
@@ -776,20 +874,20 @@
         <v>0</v>
       </c>
       <c r="E12" s="9">
-        <v>-9999</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="11">
-        <v>0</v>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.64100000000000001</v>
       </c>
       <c r="C13" s="9">
         <v>0.1</v>
@@ -798,322 +896,609 @@
         <v>0</v>
       </c>
       <c r="E13" s="9">
-        <v>-9999</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="10">
+        <v>100</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="14">
+        <v>0</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="12">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="12">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="12">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="12">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="14">
+        <v>0</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="12">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="12">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="14">
+        <v>0</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="14">
+        <v>0</v>
+      </c>
+      <c r="C36" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>1</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="12">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -1124,7 +1509,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -1135,7 +1520,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -1146,7 +1531,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
@@ -1157,7 +1542,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
@@ -1168,7 +1553,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
@@ -1179,7 +1564,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
@@ -1190,7 +1575,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
@@ -1201,7 +1586,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
@@ -1212,7 +1597,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
@@ -1223,7 +1608,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
@@ -1234,7 +1619,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
@@ -1245,7 +1630,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
@@ -1256,7 +1641,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
@@ -1267,7 +1652,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -1278,7 +1663,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -1289,7 +1674,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -1300,7 +1685,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -1311,7 +1696,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -1322,7 +1707,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -1333,7 +1718,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -1344,7 +1729,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
